--- a/Dokuments/Game Design/Assetlist.xlsx
+++ b/Dokuments/Game Design/Assetlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1bc16c49240cb32/Dokumente/Uni/Unterricht/Projektarbeit II/Grafiken/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="378" documentId="8_{C0C88385-2BF3-46F5-BB26-EBF9C86DD6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E8BFB30-05E6-4DF7-AC94-8F7C032C91AE}"/>
+  <xr:revisionPtr revIDLastSave="443" documentId="8_{C0C88385-2BF3-46F5-BB26-EBF9C86DD6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B631ECEE-A38D-4DAE-AB49-A4E7AC8BD0AC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{8947A538-E3C9-4C12-9E49-ED8B6B37E709}"/>
+    <workbookView xWindow="25507" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{8947A538-E3C9-4C12-9E49-ED8B6B37E709}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="175">
   <si>
     <t>Asset</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Main Character</t>
   </si>
   <si>
-    <t>cat left side</t>
-  </si>
-  <si>
     <t>cat right side</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
   </si>
   <si>
     <t>Gallery picture levle 3</t>
-  </si>
-  <si>
-    <t>Gallery picture levle 4</t>
   </si>
   <si>
     <t>Backgrounds</t>
@@ -593,6 +587,24 @@
   </si>
   <si>
     <t>Room 0 level 4</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>GitHub: assets/graphics/Background/Start Screen</t>
+  </si>
+  <si>
+    <t>0,5h</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>GitHub: assets/graphics/Template/Cat_Aseprite</t>
+  </si>
+  <si>
+    <t>left</t>
   </si>
 </sst>
 </file>
@@ -696,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -725,8 +737,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,11 +801,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FFFF9999"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFFF9900"/>
-      <color rgb="FFFF00FF"/>
       <color rgb="FFCC99FF"/>
-      <color rgb="FFFF9999"/>
     </mruColors>
   </colors>
   <extLst>
@@ -806,13 +819,128 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>698500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>1750484</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>1229784</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>660400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>1191684</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{44C0D645-C036-4A91-8A35-36230840CDB4}" name="Tabelle1" displayName="Tabelle1" ref="B2:O94" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="B2:O94" xr:uid="{44C0D645-C036-4A91-8A35-36230840CDB4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{44C0D645-C036-4A91-8A35-36230840CDB4}" name="Tabelle1" displayName="Tabelle1" ref="B2:O93" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="B2:O93" xr:uid="{44C0D645-C036-4A91-8A35-36230840CDB4}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{C17E94A4-2CA2-4D32-9AE6-E2ED6A92585C}" name="group" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{DA07F409-7185-4523-8015-36D0ED75167B}" name="Asset" dataDxfId="5"/>
@@ -834,8 +962,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A95629F4-F032-4178-81A6-21E99B1B00EA}" name="Tabelle2" displayName="Tabelle2" ref="B99:B121" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B99:B121" xr:uid="{A95629F4-F032-4178-81A6-21E99B1B00EA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A95629F4-F032-4178-81A6-21E99B1B00EA}" name="Tabelle2" displayName="Tabelle2" ref="B98:B120" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B98:B120" xr:uid="{A95629F4-F032-4178-81A6-21E99B1B00EA}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{D288075C-F591-4E21-981D-E70AFB83714F}" name="Legend"/>
   </tableColumns>
@@ -1139,11 +1267,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815AD4F3-8F3D-4273-B632-B8BB76458A7C}">
-  <dimension ref="B2:O121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815AD4F3-8F3D-4273-B632-B8BB76458A7C}">
+  <dimension ref="B2:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N81" sqref="N81"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G68" sqref="G66:G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1162,16 +1290,16 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -1198,31 +1326,31 @@
         <v>8</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="192.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1230,19 +1358,31 @@
       <c r="J3">
         <v>2</v>
       </c>
+      <c r="K3" t="s">
+        <v>172</v>
+      </c>
       <c r="L3" s="2"/>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="16">
+        <v>45036</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" s="8"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G4" s="5"/>
       <c r="I4">
@@ -1257,13 +1397,13 @@
       <c r="B5" s="8"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G5" s="5"/>
       <c r="I5">
@@ -1278,13 +1418,13 @@
       <c r="B6" s="8"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G6" s="5"/>
       <c r="I6">
@@ -1298,16 +1438,16 @@
     <row r="7" spans="2:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G7" s="6"/>
       <c r="I7">
@@ -1322,13 +1462,13 @@
       <c r="B8" s="8"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G8" s="6"/>
       <c r="I8">
@@ -1343,13 +1483,13 @@
       <c r="B9" s="8"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G9" s="6"/>
       <c r="I9">
@@ -1363,16 +1503,16 @@
     <row r="10" spans="2:15" ht="174" x14ac:dyDescent="0.35">
       <c r="B10" s="8"/>
       <c r="C10" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G10" s="7"/>
       <c r="I10">
@@ -1386,16 +1526,16 @@
     <row r="11" spans="2:15" ht="145" x14ac:dyDescent="0.35">
       <c r="B11" s="8"/>
       <c r="C11" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G11" s="7"/>
       <c r="I11">
@@ -1410,13 +1550,13 @@
       <c r="B12" s="8"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7"/>
       <c r="I12">
@@ -1431,13 +1571,13 @@
       <c r="B13" s="8"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7"/>
       <c r="I13">
@@ -1451,16 +1591,16 @@
     <row r="14" spans="2:15" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B14" s="8"/>
       <c r="C14" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G14" s="7"/>
       <c r="I14">
@@ -1475,13 +1615,13 @@
       <c r="B15" s="8"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G15" s="7"/>
       <c r="I15">
@@ -1499,25 +1639,25 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="2:13" ht="116" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" ht="116" x14ac:dyDescent="0.35">
       <c r="B17" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1527,36 +1667,36 @@
       </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B18" s="10"/>
       <c r="C18" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="F18" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G18" s="5"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
       <c r="C19" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G19" s="5"/>
       <c r="I19">
@@ -1567,17 +1707,17 @@
       </c>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" s="8"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G20" s="5"/>
       <c r="I20">
@@ -1588,17 +1728,17 @@
       </c>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" s="8"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G21" s="5"/>
       <c r="I21">
@@ -1609,23 +1749,23 @@
       </c>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:13" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B22" s="8"/>
       <c r="C22" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1635,36 +1775,36 @@
       </c>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B23" s="8"/>
       <c r="C23" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="F23" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G23" s="5"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B24" s="8"/>
       <c r="C24" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G24" s="5"/>
       <c r="I24">
@@ -1675,17 +1815,17 @@
       </c>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B25" s="8"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G25" s="5"/>
       <c r="I25">
@@ -1696,17 +1836,17 @@
       </c>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B26" s="8"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G26" s="5"/>
       <c r="I26">
@@ -1717,19 +1857,19 @@
       </c>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" ht="58" x14ac:dyDescent="0.35">
       <c r="B27" s="8"/>
       <c r="C27" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G27" s="5"/>
       <c r="I27">
@@ -1740,373 +1880,437 @@
       </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
+      <c r="G29" s="5"/>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
         <v>3</v>
       </c>
-      <c r="L29" s="4"/>
+      <c r="L29" s="3"/>
       <c r="M29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N29" s="16">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30" s="10"/>
       <c r="C30" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
+      <c r="G30" s="5"/>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30">
         <v>3</v>
       </c>
-      <c r="L30" s="4"/>
+      <c r="L30" s="3"/>
       <c r="M30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N30" s="16">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B31" s="8"/>
       <c r="C31" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>84</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G31" s="5"/>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
-      <c r="L31" s="4"/>
+      <c r="L31" s="3"/>
       <c r="M31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N31" s="16">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B32" s="8"/>
       <c r="C32" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
+      <c r="G32" s="5"/>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
-      <c r="L32" s="4"/>
+      <c r="L32" s="3"/>
       <c r="M32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N32" s="16">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B33" s="8"/>
       <c r="C33" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
+      <c r="G33" s="5"/>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33">
         <v>3</v>
       </c>
-      <c r="L33" s="4"/>
+      <c r="L33" s="3"/>
       <c r="M33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N33" s="16">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B34" s="8"/>
       <c r="C34" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
+      <c r="G34" s="5"/>
       <c r="I34">
         <v>2</v>
       </c>
       <c r="J34">
         <v>3</v>
       </c>
-      <c r="L34" s="4"/>
+      <c r="L34" s="3"/>
       <c r="M34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N34" s="16">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B35" s="8"/>
       <c r="C35" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
+      <c r="G35" s="5"/>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
-      <c r="L35" s="4"/>
+      <c r="L35" s="3"/>
       <c r="M35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N35" s="16">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B36" s="8"/>
       <c r="C36" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
+      <c r="G36" s="5"/>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
-      <c r="L36" s="4"/>
+      <c r="L36" s="3"/>
       <c r="M36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N36" s="16">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B37" s="8"/>
       <c r="C37" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
+      <c r="G37" s="5"/>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
         <v>3</v>
       </c>
-      <c r="L37" s="4"/>
+      <c r="L37" s="3"/>
       <c r="M37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N37" s="16">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" s="8"/>
       <c r="C38" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
+      <c r="G38" s="5"/>
       <c r="I38">
         <v>2</v>
       </c>
       <c r="J38">
         <v>3</v>
       </c>
-      <c r="L38" s="4"/>
+      <c r="L38" s="3"/>
       <c r="M38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N38" s="16">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B39" s="8"/>
       <c r="C39" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
+      <c r="G39" s="5"/>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
-      <c r="L39" s="4"/>
+      <c r="L39" s="3"/>
       <c r="M39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N39" s="16">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B40" s="8"/>
       <c r="C40" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
+      <c r="G40" s="5"/>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
-      <c r="L40" s="4"/>
+      <c r="L40" s="3"/>
       <c r="M40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N40" s="16">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B41" s="8"/>
       <c r="C41" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
+      <c r="G41" s="5"/>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41">
         <v>3</v>
       </c>
-      <c r="L41" s="4"/>
+      <c r="L41" s="3"/>
       <c r="M41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N41" s="16">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B42" s="8"/>
       <c r="C42" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
+      <c r="G42" s="5"/>
       <c r="I42">
         <v>2</v>
       </c>
       <c r="J42">
         <v>3</v>
       </c>
-      <c r="L42" s="4"/>
+      <c r="L42" s="3"/>
       <c r="M42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N42" s="16">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B43" s="8"/>
       <c r="C43" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
+      <c r="G43" s="5"/>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
-      <c r="L43" s="4"/>
+      <c r="L43" s="3"/>
       <c r="M43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N43" s="16">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B44" s="8"/>
       <c r="C44" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
+      <c r="G44" s="5"/>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
-      <c r="L44" s="4"/>
+      <c r="L44" s="3"/>
       <c r="M44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N44" s="16">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="2:13" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:14" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B46" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G46" s="7"/>
       <c r="I46">
@@ -2117,20 +2321,21 @@
       </c>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="B47" s="16"/>
+    <row r="47" spans="2:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="B47" s="8"/>
       <c r="C47" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>129</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G47" s="5"/>
       <c r="H47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -2138,30 +2343,37 @@
       <c r="J47">
         <v>1</v>
       </c>
-      <c r="L47" s="4"/>
+      <c r="K47" t="s">
+        <v>171</v>
+      </c>
+      <c r="L47" s="2"/>
       <c r="M47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="B48" s="16"/>
+      <c r="N47" s="16">
+        <v>45089</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="B48" s="8"/>
       <c r="C48" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>128</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G48" s="5"/>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
-      <c r="L48" s="4"/>
+      <c r="L48" s="3"/>
       <c r="M48">
         <v>2</v>
       </c>
@@ -2169,17 +2381,18 @@
     <row r="49" spans="2:13" ht="58" x14ac:dyDescent="0.35">
       <c r="B49" s="8"/>
       <c r="C49" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>131</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G49" s="5"/>
       <c r="H49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -2187,7 +2400,7 @@
       <c r="J49">
         <v>1</v>
       </c>
-      <c r="L49" s="4"/>
+      <c r="L49" s="2"/>
       <c r="M49">
         <v>1</v>
       </c>
@@ -2195,22 +2408,23 @@
     <row r="50" spans="2:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B50" s="8"/>
       <c r="C50" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>128</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G50" s="5"/>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
-      <c r="L50" s="4"/>
+      <c r="L50" s="3"/>
       <c r="M50">
         <v>2</v>
       </c>
@@ -2218,17 +2432,18 @@
     <row r="51" spans="2:13" ht="58" x14ac:dyDescent="0.35">
       <c r="B51" s="8"/>
       <c r="C51" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>133</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G51" s="5"/>
       <c r="H51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -2236,7 +2451,7 @@
       <c r="J51">
         <v>1</v>
       </c>
-      <c r="L51" s="4"/>
+      <c r="L51" s="2"/>
       <c r="M51">
         <v>1</v>
       </c>
@@ -2244,22 +2459,23 @@
     <row r="52" spans="2:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B52" s="8"/>
       <c r="C52" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>128</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G52" s="5"/>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
-      <c r="L52" s="4"/>
+      <c r="L52" s="3"/>
       <c r="M52">
         <v>2</v>
       </c>
@@ -2267,17 +2483,18 @@
     <row r="53" spans="2:13" ht="58" x14ac:dyDescent="0.35">
       <c r="B53" s="8"/>
       <c r="C53" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>132</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G53" s="5"/>
       <c r="H53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -2285,7 +2502,7 @@
       <c r="J53">
         <v>1</v>
       </c>
-      <c r="L53" s="4"/>
+      <c r="L53" s="2"/>
       <c r="M53">
         <v>1</v>
       </c>
@@ -2293,22 +2510,23 @@
     <row r="54" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B54" s="8"/>
       <c r="C54" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>128</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G54" s="5"/>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
-      <c r="L54" s="4"/>
+      <c r="L54" s="3"/>
       <c r="M54">
         <v>2</v>
       </c>
@@ -2316,18 +2534,19 @@
     <row r="55" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B55" s="8"/>
       <c r="C55" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="12"/>
       <c r="F55" s="8"/>
+      <c r="G55" s="5"/>
       <c r="I55">
         <v>2</v>
       </c>
       <c r="J55">
         <v>2</v>
       </c>
-      <c r="L55" s="4"/>
+      <c r="L55" s="2"/>
       <c r="M55">
         <v>2</v>
       </c>
@@ -2341,16 +2560,17 @@
     </row>
     <row r="57" spans="2:13" ht="58" x14ac:dyDescent="0.35">
       <c r="B57" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="8"/>
       <c r="F57" s="12" t="s">
-        <v>134</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G57" s="5"/>
       <c r="I57">
         <v>1</v>
       </c>
@@ -2365,13 +2585,14 @@
     <row r="58" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B58" s="8"/>
       <c r="C58" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8" t="s">
-        <v>82</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G58" s="5"/>
       <c r="I58">
         <v>1</v>
       </c>
@@ -2386,14 +2607,14 @@
     <row r="59" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B59" s="8"/>
       <c r="C59" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G59" s="6"/>
       <c r="I59">
@@ -2407,14 +2628,14 @@
     <row r="60" spans="2:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B60" s="8"/>
       <c r="C60" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G60" s="5"/>
       <c r="I60">
@@ -2428,14 +2649,14 @@
     <row r="61" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B61" s="8"/>
       <c r="C61" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G61" s="6"/>
       <c r="I61">
@@ -2449,14 +2670,14 @@
     <row r="62" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B62" s="8"/>
       <c r="C62" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G62" s="6"/>
       <c r="I62">
@@ -2476,17 +2697,17 @@
     </row>
     <row r="64" spans="2:13" ht="58" x14ac:dyDescent="0.35">
       <c r="B64" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G64" s="5"/>
       <c r="I64">
@@ -2497,17 +2718,17 @@
       </c>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B65" s="8"/>
       <c r="C65" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G65" s="5"/>
       <c r="I65">
@@ -2518,18 +2739,19 @@
       </c>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="2:13" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B66" s="8"/>
       <c r="C66" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="8"/>
       <c r="F66" s="12" t="s">
-        <v>140</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G66" s="5"/>
       <c r="H66" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I66">
         <v>2</v>
@@ -2537,21 +2759,25 @@
       <c r="J66">
         <v>3</v>
       </c>
-      <c r="L66" s="4"/>
+      <c r="L66" s="3"/>
       <c r="M66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N66" s="16">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B67" s="8"/>
       <c r="C67" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8" t="s">
-        <v>82</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G67" s="5"/>
       <c r="I67">
         <v>2</v>
       </c>
@@ -2563,86 +2789,97 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B68" s="8"/>
       <c r="C68" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8" t="s">
-        <v>82</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G68" s="5"/>
       <c r="I68">
         <v>2</v>
       </c>
       <c r="J68">
         <v>3</v>
       </c>
-      <c r="L68" s="4"/>
+      <c r="L68" s="3"/>
       <c r="M68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N68" s="16">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B69" s="8"/>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="2:15" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B70" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D69" s="11"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I69">
-        <v>2</v>
-      </c>
-      <c r="J69">
-        <v>3</v>
-      </c>
-      <c r="L69" s="4"/>
-      <c r="M69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-    </row>
-    <row r="71" spans="2:13" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B71" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G70" s="6"/>
+      <c r="I70">
+        <v>3</v>
+      </c>
+      <c r="J70">
+        <v>3</v>
+      </c>
+      <c r="K70" t="s">
+        <v>169</v>
+      </c>
+      <c r="L70" s="2"/>
+      <c r="N70" s="16">
+        <v>45053</v>
+      </c>
+      <c r="O70" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B71" s="8"/>
       <c r="C71" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>141</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="F71" s="8"/>
       <c r="G71" s="6"/>
       <c r="I71">
         <v>3</v>
       </c>
       <c r="J71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="2:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:15" ht="58" x14ac:dyDescent="0.35">
       <c r="B72" s="8"/>
       <c r="C72" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="6"/>
@@ -2654,53 +2891,60 @@
       </c>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="2:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B73" s="8"/>
-      <c r="C73" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D73" s="11"/>
+      <c r="C73" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="13"/>
       <c r="E73" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="6"/>
       <c r="I73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J73">
         <v>2</v>
       </c>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:15" ht="29" x14ac:dyDescent="0.35">
       <c r="B74" s="8"/>
-      <c r="C74" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F74" s="8"/>
-      <c r="G74" s="6"/>
+      <c r="C74" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" s="11"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G74" s="5"/>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74">
-        <v>2</v>
-      </c>
-      <c r="L74" s="2"/>
-    </row>
-    <row r="75" spans="2:13" ht="29" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="L74" s="4"/>
+      <c r="M74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B75" s="8"/>
       <c r="C75" s="11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="8"/>
       <c r="F75" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="G75" s="5"/>
+      <c r="H75" t="s">
+        <v>77</v>
       </c>
       <c r="I75">
         <v>3</v>
@@ -2708,64 +2952,68 @@
       <c r="J75">
         <v>3</v>
       </c>
-      <c r="L75" s="4"/>
+      <c r="L75" s="2"/>
       <c r="M75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:15" ht="87" x14ac:dyDescent="0.35">
       <c r="B76" s="8"/>
-      <c r="C76" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="H76" t="s">
-        <v>79</v>
-      </c>
+      <c r="C76" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76" s="13"/>
+      <c r="E76" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F76" s="8"/>
+      <c r="G76" s="5"/>
       <c r="I76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76">
-        <v>3</v>
-      </c>
-      <c r="L76" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="K76" t="s">
+        <v>172</v>
+      </c>
+      <c r="L76" s="2"/>
       <c r="M76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" ht="87" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="N76" s="16">
+        <v>45089</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B77" s="8"/>
-      <c r="C77" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D77" s="13"/>
-      <c r="E77" s="12" t="s">
-        <v>120</v>
-      </c>
+      <c r="C77" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D77" s="11"/>
+      <c r="E77" s="12"/>
       <c r="F77" s="8"/>
+      <c r="G77" s="5"/>
       <c r="I77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L77" s="4"/>
       <c r="M77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B78" s="8"/>
       <c r="C78" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="12"/>
       <c r="F78" s="8"/>
+      <c r="G78" s="5"/>
       <c r="I78">
         <v>3</v>
       </c>
@@ -2777,14 +3025,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B79" s="8"/>
       <c r="C79" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="12"/>
       <c r="F79" s="8"/>
+      <c r="G79" s="5"/>
       <c r="I79">
         <v>3</v>
       </c>
@@ -2796,14 +3045,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B80" s="8"/>
       <c r="C80" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="12"/>
       <c r="F80" s="8"/>
+      <c r="G80" s="5"/>
       <c r="I80">
         <v>3</v>
       </c>
@@ -2815,43 +3065,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B81" s="8"/>
-      <c r="C81" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="12"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
       <c r="F81" s="8"/>
-      <c r="I81">
-        <v>3</v>
-      </c>
-      <c r="J81">
-        <v>3</v>
-      </c>
-      <c r="L81" s="4"/>
-      <c r="M81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B82" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D82" s="11"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B83" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="G82" s="6"/>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B83" s="8"/>
       <c r="C83" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
-      <c r="G83" s="6"/>
+      <c r="G83" s="7"/>
       <c r="I83">
         <v>2</v>
       </c>
@@ -2860,57 +3108,61 @@
       </c>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B84" s="8"/>
       <c r="C84" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
-      <c r="G84" s="7"/>
+      <c r="G84" s="5"/>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84">
-        <v>2</v>
-      </c>
-      <c r="L84" s="2"/>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="L84" s="3"/>
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84" s="16">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B85" s="8"/>
-      <c r="C85" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D85" s="11"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
-      <c r="I85">
-        <v>2</v>
-      </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
-      <c r="L85" s="4"/>
-      <c r="M85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B86" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D86" s="11"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B87" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D87" s="11"/>
+      <c r="G86" s="5"/>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86">
+        <v>3</v>
+      </c>
+      <c r="L86" s="2"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B87" s="8"/>
+      <c r="C87" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87" s="13"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="5"/>
@@ -2918,49 +3170,56 @@
         <v>2</v>
       </c>
       <c r="J87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B88" s="8"/>
-      <c r="C88" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D88" s="13"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
-      <c r="G88" s="5"/>
-      <c r="I88">
-        <v>2</v>
-      </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-      <c r="L88" s="2"/>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B89" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D89" s="11"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B90" s="10" t="s">
-        <v>74</v>
-      </c>
+      <c r="G89" s="5"/>
+      <c r="H89" t="s">
+        <v>77</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>2</v>
+      </c>
+      <c r="L89" s="3"/>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89" s="16">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B90" s="8"/>
       <c r="C90" s="11" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
-      <c r="H90" t="s">
-        <v>79</v>
-      </c>
-      <c r="I90">
-        <v>2</v>
+      <c r="G90" s="5"/>
+      <c r="I90" t="s">
+        <v>126</v>
       </c>
       <c r="J90">
         <v>2</v>
@@ -2970,42 +3229,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B91" s="16"/>
-      <c r="C91" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D91" s="11"/>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
-      <c r="I91" t="s">
-        <v>128</v>
-      </c>
-      <c r="J91">
-        <v>2</v>
-      </c>
-      <c r="L91" s="4"/>
-      <c r="M91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B92" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D92" s="11"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B93" s="10" t="s">
+      <c r="G92" s="5"/>
+      <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92">
+        <v>3</v>
+      </c>
+      <c r="L92" s="4"/>
+      <c r="M92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B93" s="8"/>
+      <c r="C93" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
+      <c r="G93" s="5"/>
       <c r="I93">
         <v>3</v>
       </c>
@@ -3017,135 +3278,170 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B94" s="8"/>
-      <c r="C94" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D94" s="11"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
-      <c r="I94">
-        <v>3</v>
-      </c>
-      <c r="J94">
-        <v>3</v>
-      </c>
-      <c r="L94" s="4"/>
-      <c r="M94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B99" s="1" t="s">
-        <v>46</v>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B98" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B100" s="15" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B101" s="15" t="s">
+      <c r="B101" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B103" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B102" s="14" t="s">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B104" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B104" s="5" t="s">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B105" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B105" s="7" t="s">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B107" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B106" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B112" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B111" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B117" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B116" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B121" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>698500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>1746250</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>1225550</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1025" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1026" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>12700</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>660400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>12700</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>1187450</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1026" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Dokuments/Game Design/Assetlist.xlsx
+++ b/Dokuments/Game Design/Assetlist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1bc16c49240cb32/Dokumente/Uni/Unterricht/Projektarbeit II/Grafiken/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1bc16c49240cb32/Dokumente/Uni/Unterricht/Projektarbeit II/Paws_of_Memories/Dokuments/Game Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="443" documentId="8_{C0C88385-2BF3-46F5-BB26-EBF9C86DD6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B631ECEE-A38D-4DAE-AB49-A4E7AC8BD0AC}"/>
+  <xr:revisionPtr revIDLastSave="460" documentId="8_{C0C88385-2BF3-46F5-BB26-EBF9C86DD6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{585668BF-655A-431F-90EF-91E49F6204A6}"/>
   <bookViews>
-    <workbookView xWindow="25507" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{8947A538-E3C9-4C12-9E49-ED8B6B37E709}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{8947A538-E3C9-4C12-9E49-ED8B6B37E709}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="176">
   <si>
     <t>Asset</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>middleage grandmother</t>
-  </si>
-  <si>
-    <t>young adult grandmother</t>
   </si>
   <si>
     <t>teen grandmother</t>
@@ -586,9 +583,6 @@
     <t>Room 0 level 3</t>
   </si>
   <si>
-    <t>Room 0 level 4</t>
-  </si>
-  <si>
     <t>4h</t>
   </si>
   <si>
@@ -605,6 +599,15 @@
   </si>
   <si>
     <t>left</t>
+  </si>
+  <si>
+    <t>A picture of the cat and the baby of the woman playing or sleeping together.</t>
+  </si>
+  <si>
+    <t>Old lady and cat sitting on the veranda of a farm house watching the sunset.</t>
+  </si>
+  <si>
+    <t>Young girl finding the cat in the woods.</t>
   </si>
 </sst>
 </file>
@@ -801,9 +804,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FFFF9999"/>
-      <color rgb="FF00FF00"/>
       <color rgb="FFFF9900"/>
       <color rgb="FFCC99FF"/>
     </mruColors>
@@ -827,14 +830,14 @@
         <xdr:from>
           <xdr:col>14</xdr:col>
           <xdr:colOff>361950</xdr:colOff>
-          <xdr:row>69</xdr:row>
+          <xdr:row>65</xdr:row>
           <xdr:rowOff>698500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>1750484</xdr:colOff>
-          <xdr:row>69</xdr:row>
-          <xdr:rowOff>1229784</xdr:rowOff>
+          <xdr:colOff>1746250</xdr:colOff>
+          <xdr:row>65</xdr:row>
+          <xdr:rowOff>1225550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -889,7 +892,7 @@
           <xdr:col>15</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>1191684</xdr:rowOff>
+          <xdr:rowOff>1187450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -934,13 +937,9 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{44C0D645-C036-4A91-8A35-36230840CDB4}" name="Tabelle1" displayName="Tabelle1" ref="B2:O93" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="B2:O93" xr:uid="{44C0D645-C036-4A91-8A35-36230840CDB4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{44C0D645-C036-4A91-8A35-36230840CDB4}" name="Tabelle1" displayName="Tabelle1" ref="B2:O88" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="B2:O88" xr:uid="{44C0D645-C036-4A91-8A35-36230840CDB4}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{C17E94A4-2CA2-4D32-9AE6-E2ED6A92585C}" name="group" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{DA07F409-7185-4523-8015-36D0ED75167B}" name="Asset" dataDxfId="5"/>
@@ -962,8 +961,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A95629F4-F032-4178-81A6-21E99B1B00EA}" name="Tabelle2" displayName="Tabelle2" ref="B98:B120" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B98:B120" xr:uid="{A95629F4-F032-4178-81A6-21E99B1B00EA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A95629F4-F032-4178-81A6-21E99B1B00EA}" name="Tabelle2" displayName="Tabelle2" ref="B93:B115" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B93:B115" xr:uid="{A95629F4-F032-4178-81A6-21E99B1B00EA}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{D288075C-F591-4E21-981D-E70AFB83714F}" name="Legend"/>
   </tableColumns>
@@ -1268,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815AD4F3-8F3D-4273-B632-B8BB76458A7C}">
-  <dimension ref="B2:O120"/>
+  <dimension ref="B2:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G68" sqref="G66:G68"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="61" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1290,7 +1289,7 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>0</v>
@@ -1299,7 +1298,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -1329,28 +1328,28 @@
         <v>14</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="192.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1359,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3">
@@ -1369,7 +1368,7 @@
         <v>45036</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.35">
@@ -1379,10 +1378,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="5"/>
       <c r="I4">
@@ -1400,10 +1399,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="5"/>
       <c r="I5">
@@ -1421,10 +1420,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="5"/>
       <c r="I6">
@@ -1444,10 +1443,10 @@
         <v>15</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G7" s="6"/>
       <c r="I7">
@@ -1465,10 +1464,10 @@
         <v>16</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" s="6"/>
       <c r="I8">
@@ -1486,10 +1485,10 @@
         <v>17</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" s="6"/>
       <c r="I9">
@@ -1509,10 +1508,10 @@
         <v>19</v>
       </c>
       <c r="E10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>87</v>
       </c>
       <c r="G10" s="7"/>
       <c r="I10">
@@ -1532,10 +1531,10 @@
         <v>19</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G11" s="7"/>
       <c r="I11">
@@ -1553,10 +1552,10 @@
         <v>16</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7"/>
       <c r="I12">
@@ -1574,10 +1573,10 @@
         <v>17</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7"/>
       <c r="I13">
@@ -1597,10 +1596,10 @@
         <v>19</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G14" s="7"/>
       <c r="I14">
@@ -1618,10 +1617,10 @@
         <v>16</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="7"/>
       <c r="I15">
@@ -1641,7 +1640,7 @@
     </row>
     <row r="17" spans="2:14" ht="116" x14ac:dyDescent="0.35">
       <c r="B17" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>24</v>
@@ -1650,14 +1649,14 @@
         <v>16</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1670,16 +1669,16 @@
     <row r="18" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B18" s="10"/>
       <c r="C18" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G18" s="5"/>
       <c r="L18" s="2"/>
@@ -1693,10 +1692,10 @@
         <v>19</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G19" s="5"/>
       <c r="I19">
@@ -1714,10 +1713,10 @@
         <v>16</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G20" s="5"/>
       <c r="I20">
@@ -1735,10 +1734,10 @@
         <v>17</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G21" s="5"/>
       <c r="I21">
@@ -1758,14 +1757,14 @@
         <v>16</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1778,16 +1777,16 @@
     <row r="23" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B23" s="8"/>
       <c r="C23" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>96</v>
-      </c>
       <c r="F23" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G23" s="5"/>
       <c r="L23" s="2"/>
@@ -1801,10 +1800,10 @@
         <v>19</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G24" s="5"/>
       <c r="I24">
@@ -1822,10 +1821,10 @@
         <v>16</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G25" s="5"/>
       <c r="I25">
@@ -1843,10 +1842,10 @@
         <v>17</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G26" s="5"/>
       <c r="I26">
@@ -1866,10 +1865,10 @@
         <v>16</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G27" s="5"/>
       <c r="I27">
@@ -1889,13 +1888,13 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -1906,7 +1905,7 @@
       <c r="J29">
         <v>3</v>
       </c>
-      <c r="L29" s="3"/>
+      <c r="L29" s="2"/>
       <c r="M29">
         <v>1</v>
       </c>
@@ -1917,10 +1916,10 @@
     <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30" s="10"/>
       <c r="C30" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>163</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -1931,7 +1930,7 @@
       <c r="J30">
         <v>3</v>
       </c>
-      <c r="L30" s="3"/>
+      <c r="L30" s="2"/>
       <c r="M30">
         <v>2</v>
       </c>
@@ -1945,11 +1944,11 @@
         <v>18</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G31" s="5"/>
       <c r="I31">
@@ -1958,7 +1957,7 @@
       <c r="J31">
         <v>1</v>
       </c>
-      <c r="L31" s="3"/>
+      <c r="L31" s="2"/>
       <c r="M31">
         <v>3</v>
       </c>
@@ -1972,7 +1971,7 @@
         <v>30</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -1983,7 +1982,7 @@
       <c r="J32">
         <v>1</v>
       </c>
-      <c r="L32" s="3"/>
+      <c r="L32" s="2"/>
       <c r="M32">
         <v>2</v>
       </c>
@@ -1997,7 +1996,7 @@
         <v>31</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -2008,7 +2007,7 @@
       <c r="J33">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
+      <c r="L33" s="2"/>
       <c r="M33">
         <v>1</v>
       </c>
@@ -2019,10 +2018,10 @@
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B34" s="8"/>
       <c r="C34" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>163</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -2033,7 +2032,7 @@
       <c r="J34">
         <v>3</v>
       </c>
-      <c r="L34" s="3"/>
+      <c r="L34" s="2"/>
       <c r="M34">
         <v>2</v>
       </c>
@@ -2047,7 +2046,7 @@
         <v>18</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -2058,7 +2057,7 @@
       <c r="J35">
         <v>1</v>
       </c>
-      <c r="L35" s="3"/>
+      <c r="L35" s="2"/>
       <c r="M35">
         <v>3</v>
       </c>
@@ -2072,7 +2071,7 @@
         <v>30</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -2083,7 +2082,7 @@
       <c r="J36">
         <v>1</v>
       </c>
-      <c r="L36" s="3"/>
+      <c r="L36" s="2"/>
       <c r="M36">
         <v>2</v>
       </c>
@@ -2097,7 +2096,7 @@
         <v>32</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -2108,7 +2107,7 @@
       <c r="J37">
         <v>3</v>
       </c>
-      <c r="L37" s="3"/>
+      <c r="L37" s="2"/>
       <c r="M37">
         <v>1</v>
       </c>
@@ -2119,10 +2118,10 @@
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" s="8"/>
       <c r="C38" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>163</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -2133,7 +2132,7 @@
       <c r="J38">
         <v>3</v>
       </c>
-      <c r="L38" s="3"/>
+      <c r="L38" s="2"/>
       <c r="M38">
         <v>2</v>
       </c>
@@ -2147,7 +2146,7 @@
         <v>18</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -2158,7 +2157,7 @@
       <c r="J39">
         <v>1</v>
       </c>
-      <c r="L39" s="3"/>
+      <c r="L39" s="2"/>
       <c r="M39">
         <v>3</v>
       </c>
@@ -2172,7 +2171,7 @@
         <v>30</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -2183,7 +2182,7 @@
       <c r="J40">
         <v>1</v>
       </c>
-      <c r="L40" s="3"/>
+      <c r="L40" s="2"/>
       <c r="M40">
         <v>2</v>
       </c>
@@ -2193,89 +2192,79 @@
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B41" s="8"/>
-      <c r="C41" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>160</v>
-      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
-      <c r="G41" s="5"/>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3"/>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41" s="16">
-        <v>45096</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B42" s="8"/>
+    </row>
+    <row r="42" spans="2:14" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B42" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="C42" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42" s="7"/>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>3</v>
-      </c>
-      <c r="L42" s="3"/>
-      <c r="M42">
-        <v>2</v>
-      </c>
-      <c r="N42" s="16">
-        <v>45096</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="2:14" ht="58" x14ac:dyDescent="0.35">
       <c r="B43" s="8"/>
-      <c r="C43" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
+      <c r="C43" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="G43" s="5"/>
+      <c r="H43" t="s">
+        <v>77</v>
+      </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
-      <c r="L43" s="3"/>
+      <c r="K43" t="s">
+        <v>169</v>
+      </c>
+      <c r="L43" s="2"/>
       <c r="M43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N43" s="16">
-        <v>45096</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
+        <v>45089</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="29" x14ac:dyDescent="0.35">
       <c r="B44" s="8"/>
       <c r="C44" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="G44" s="5"/>
       <c r="I44">
         <v>1</v>
@@ -2283,88 +2272,100 @@
       <c r="J44">
         <v>1</v>
       </c>
-      <c r="L44" s="3"/>
+      <c r="L44" s="2"/>
       <c r="M44">
         <v>2</v>
       </c>
-      <c r="N44" s="16">
-        <v>45096</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="2:14" ht="58" x14ac:dyDescent="0.35">
       <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="2:14" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B46" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" s="11"/>
+      <c r="C45" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" t="s">
+        <v>77</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="L45" s="2"/>
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="B46" s="8"/>
+      <c r="C46" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="13"/>
       <c r="E46" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G46" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G46" s="5"/>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L46" s="2"/>
+      <c r="M46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="2:14" ht="58" x14ac:dyDescent="0.35">
       <c r="B47" s="8"/>
       <c r="C47" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47">
         <v>1</v>
-      </c>
-      <c r="K47" t="s">
-        <v>171</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47">
         <v>1</v>
-      </c>
-      <c r="N47" s="16">
-        <v>45089</v>
       </c>
     </row>
     <row r="48" spans="2:14" ht="29" x14ac:dyDescent="0.35">
       <c r="B48" s="8"/>
       <c r="C48" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G48" s="5"/>
       <c r="I48">
@@ -2373,26 +2374,26 @@
       <c r="J48">
         <v>1</v>
       </c>
-      <c r="L48" s="3"/>
+      <c r="L48" s="2"/>
       <c r="M48">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:14" ht="58" x14ac:dyDescent="0.35">
       <c r="B49" s="8"/>
       <c r="C49" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>129</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -2405,17 +2406,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B50" s="8"/>
       <c r="C50" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G50" s="5"/>
       <c r="I50">
@@ -2424,218 +2425,194 @@
       <c r="J50">
         <v>1</v>
       </c>
-      <c r="L50" s="3"/>
+      <c r="L50" s="2"/>
       <c r="M50">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B51" s="8"/>
       <c r="C51" s="11" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="D51" s="11"/>
-      <c r="E51" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>131</v>
-      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="8"/>
       <c r="G51" s="5"/>
-      <c r="H51" t="s">
-        <v>78</v>
-      </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B52" s="8"/>
-      <c r="C52" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G52" s="5"/>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="L52" s="3"/>
-      <c r="M52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="B53" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="2:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="B53" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="C53" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D53" s="11"/>
-      <c r="E53" s="8" t="s">
-        <v>106</v>
-      </c>
+      <c r="E53" s="8"/>
       <c r="F53" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="L53" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="L53" s="3"/>
       <c r="M53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B54" s="8"/>
-      <c r="C54" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="12" t="s">
-        <v>107</v>
-      </c>
+      <c r="C54" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="8"/>
       <c r="F54" s="8" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="G54" s="5"/>
+      <c r="H54" t="s">
+        <v>76</v>
+      </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B55" s="8"/>
       <c r="C55" s="11" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="5"/>
+      <c r="E55" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G55" s="6"/>
       <c r="I55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L55" s="2"/>
-      <c r="M55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="2:14" ht="29" x14ac:dyDescent="0.35">
       <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-    </row>
-    <row r="57" spans="2:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="B57" s="10" t="s">
+      <c r="C56" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B57" s="8"/>
+      <c r="C57" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B58" s="8"/>
+      <c r="C58" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G58" s="6"/>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="2:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="B60" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G57" s="5"/>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57">
-        <v>2</v>
-      </c>
-      <c r="L57" s="4"/>
-      <c r="M57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B58" s="8"/>
-      <c r="C58" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G58" s="5"/>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58">
-        <v>2</v>
-      </c>
-      <c r="L58" s="4"/>
-      <c r="M58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B59" s="8"/>
-      <c r="C59" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G59" s="6"/>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="2:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="B60" s="8"/>
       <c r="C60" s="11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G60" s="5"/>
       <c r="I60">
@@ -2646,19 +2623,19 @@
       </c>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B61" s="8"/>
-      <c r="C61" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" s="11"/>
+      <c r="C61" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="13"/>
       <c r="E61" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G61" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="G61" s="5"/>
       <c r="I61">
         <v>1</v>
       </c>
@@ -2667,171 +2644,190 @@
       </c>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B62" s="8"/>
-      <c r="C62" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="13"/>
+      <c r="C62" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="11"/>
       <c r="E62" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G62" s="6"/>
+        <v>175</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G62" s="5"/>
+      <c r="H62" t="s">
+        <v>76</v>
+      </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L62" s="2"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62" s="16">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" ht="29" x14ac:dyDescent="0.35">
       <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-    </row>
-    <row r="64" spans="2:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="B64" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="C63" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>3</v>
+      </c>
+      <c r="L63" s="3"/>
+      <c r="M63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="B64" s="8"/>
       <c r="C64" s="11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>136</v>
+        <v>174</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="G64" s="5"/>
       <c r="I64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L64" s="2"/>
-    </row>
-    <row r="65" spans="2:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64" s="16">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B65" s="8"/>
-      <c r="C65" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D65" s="13"/>
-      <c r="E65" s="12" t="s">
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="2:15" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B66" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="11"/>
+      <c r="E66" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F65" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="G65" s="5"/>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="J65">
-        <v>2</v>
-      </c>
-      <c r="L65" s="2"/>
-    </row>
-    <row r="66" spans="2:15" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B66" s="8"/>
-      <c r="C66" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D66" s="11"/>
-      <c r="E66" s="8"/>
       <c r="F66" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G66" s="5"/>
-      <c r="H66" t="s">
-        <v>77</v>
-      </c>
+      <c r="G66" s="6"/>
       <c r="I66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J66">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-      <c r="M66">
-        <v>2</v>
-      </c>
+      <c r="K66" t="s">
+        <v>167</v>
+      </c>
+      <c r="L66" s="2"/>
       <c r="N66" s="16">
-        <v>45096</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.35">
+        <v>45053</v>
+      </c>
+      <c r="O66" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" ht="29" x14ac:dyDescent="0.35">
       <c r="B67" s="8"/>
       <c r="C67" s="11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D67" s="11"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G67" s="5"/>
+      <c r="E67" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F67" s="8"/>
+      <c r="G67" s="6"/>
       <c r="I67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J67">
-        <v>3</v>
-      </c>
-      <c r="L67" s="4"/>
-      <c r="M67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="2:15" ht="58" x14ac:dyDescent="0.35">
       <c r="B68" s="8"/>
       <c r="C68" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D68" s="11"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G68" s="5"/>
+      <c r="E68" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="6"/>
       <c r="I68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68">
-        <v>3</v>
-      </c>
-      <c r="L68" s="3"/>
-      <c r="M68">
-        <v>2</v>
-      </c>
-      <c r="N68" s="16">
-        <v>45096</v>
-      </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="L68" s="2"/>
+    </row>
+    <row r="69" spans="2:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
+      <c r="C69" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="13"/>
+      <c r="E69" s="12" t="s">
+        <v>116</v>
+      </c>
       <c r="F69" s="8"/>
-    </row>
-    <row r="70" spans="2:15" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B70" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="G69" s="6"/>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B70" s="8"/>
       <c r="C70" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D70" s="11"/>
-      <c r="E70" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="E70" s="8"/>
       <c r="F70" s="12" t="s">
         <v>139</v>
       </c>
@@ -2842,85 +2838,93 @@
       <c r="J70">
         <v>3</v>
       </c>
-      <c r="K70" t="s">
-        <v>169</v>
-      </c>
-      <c r="L70" s="2"/>
-      <c r="N70" s="16">
-        <v>45053</v>
-      </c>
-      <c r="O70" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="L70" s="4"/>
+      <c r="M70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B71" s="8"/>
       <c r="C71" s="11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D71" s="11"/>
-      <c r="E71" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="6"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" t="s">
+        <v>76</v>
+      </c>
       <c r="I71">
         <v>3</v>
       </c>
       <c r="J71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L71" s="2"/>
-    </row>
-    <row r="72" spans="2:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="M71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" ht="87" x14ac:dyDescent="0.35">
       <c r="B72" s="8"/>
-      <c r="C72" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D72" s="11"/>
+      <c r="C72" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" s="13"/>
       <c r="E72" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F72" s="8"/>
-      <c r="G72" s="6"/>
+      <c r="G72" s="5"/>
       <c r="I72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J72">
         <v>2</v>
       </c>
+      <c r="K72" t="s">
+        <v>170</v>
+      </c>
       <c r="L72" s="2"/>
-    </row>
-    <row r="73" spans="2:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="M72">
+        <v>3</v>
+      </c>
+      <c r="N72" s="16">
+        <v>45089</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B73" s="8"/>
-      <c r="C73" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="12" t="s">
-        <v>117</v>
-      </c>
+      <c r="C73" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" s="11"/>
+      <c r="E73" s="12"/>
       <c r="F73" s="8"/>
       <c r="G73" s="6"/>
       <c r="I73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J73">
-        <v>2</v>
-      </c>
-      <c r="L73" s="2"/>
-    </row>
-    <row r="74" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="L73" s="4"/>
+      <c r="M73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B74" s="8"/>
       <c r="C74" s="11" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="D74" s="11"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="G74" s="5"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="6"/>
       <c r="I74">
         <v>3</v>
       </c>
@@ -2932,196 +2936,161 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="2:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B75" s="8"/>
       <c r="C75" s="11" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="D75" s="11"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G75" s="5"/>
-      <c r="H75" t="s">
-        <v>77</v>
-      </c>
+      <c r="E75" s="12"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="6"/>
       <c r="I75">
         <v>3</v>
       </c>
       <c r="J75">
         <v>3</v>
       </c>
-      <c r="L75" s="2"/>
+      <c r="L75" s="4"/>
       <c r="M75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="2:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B76" s="8"/>
-      <c r="C76" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="12" t="s">
-        <v>118</v>
-      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
       <c r="F76" s="8"/>
-      <c r="G76" s="5"/>
-      <c r="I76">
-        <v>2</v>
-      </c>
-      <c r="J76">
-        <v>2</v>
-      </c>
-      <c r="K76" t="s">
-        <v>172</v>
-      </c>
-      <c r="L76" s="2"/>
-      <c r="M76">
-        <v>3</v>
-      </c>
-      <c r="N76" s="16">
-        <v>45089</v>
-      </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B77" s="8"/>
+      <c r="B77" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="C77" s="11" t="s">
-        <v>165</v>
+        <v>58</v>
       </c>
       <c r="D77" s="11"/>
-      <c r="E77" s="12"/>
+      <c r="E77" s="8"/>
       <c r="F77" s="8"/>
-      <c r="G77" s="5"/>
+      <c r="G77" s="6"/>
       <c r="I77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J77">
-        <v>3</v>
-      </c>
-      <c r="L77" s="4"/>
-      <c r="M77">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L77" s="2"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B78" s="8"/>
       <c r="C78" s="11" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="12"/>
+      <c r="E78" s="8"/>
       <c r="F78" s="8"/>
-      <c r="G78" s="5"/>
+      <c r="G78" s="7"/>
       <c r="I78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J78">
-        <v>3</v>
-      </c>
-      <c r="L78" s="4"/>
-      <c r="M78">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L78" s="2"/>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B79" s="8"/>
       <c r="C79" s="11" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="D79" s="11"/>
-      <c r="E79" s="12"/>
+      <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="5"/>
       <c r="I79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J79">
-        <v>3</v>
-      </c>
-      <c r="L79" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="L79" s="2"/>
       <c r="M79">
         <v>2</v>
+      </c>
+      <c r="N79" s="16">
+        <v>45096</v>
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B80" s="8"/>
-      <c r="C80" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D80" s="11"/>
-      <c r="E80" s="12"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
       <c r="F80" s="8"/>
-      <c r="G80" s="5"/>
-      <c r="I80">
-        <v>3</v>
-      </c>
-      <c r="J80">
-        <v>3</v>
-      </c>
-      <c r="L80" s="4"/>
-      <c r="M80">
-        <v>2</v>
-      </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
+      <c r="B81" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D81" s="11"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
+      <c r="G81" s="5"/>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>3</v>
+      </c>
+      <c r="L81" s="2"/>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B82" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D82" s="11"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D82" s="13"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
-      <c r="G82" s="6"/>
+      <c r="G82" s="5"/>
       <c r="I82">
         <v>2</v>
       </c>
       <c r="J82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L82" s="2"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B83" s="8"/>
-      <c r="C83" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D83" s="11"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
-      <c r="G83" s="7"/>
-      <c r="I83">
-        <v>2</v>
-      </c>
-      <c r="J83">
-        <v>2</v>
-      </c>
-      <c r="L83" s="2"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B84" s="8"/>
+      <c r="B84" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="C84" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="5"/>
+      <c r="H84" t="s">
+        <v>76</v>
+      </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L84" s="3"/>
       <c r="M84">
@@ -3133,252 +3102,174 @@
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
+      <c r="C85" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D85" s="11"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
+      <c r="G85" s="5"/>
+      <c r="I85" t="s">
+        <v>125</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+      <c r="L85" s="4"/>
+      <c r="M85">
+        <v>2</v>
+      </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B86" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D86" s="11"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
-      <c r="G86" s="5"/>
-      <c r="I86">
-        <v>2</v>
-      </c>
-      <c r="J86">
-        <v>3</v>
-      </c>
-      <c r="L86" s="2"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B87" s="8"/>
-      <c r="C87" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D87" s="13"/>
+      <c r="B87" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D87" s="11"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="5"/>
       <c r="I87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="L87" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="L87" s="4"/>
+      <c r="M87">
+        <v>3</v>
+      </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
+      <c r="C88" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D88" s="11"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
+      <c r="G88" s="5"/>
+      <c r="I88">
+        <v>3</v>
+      </c>
+      <c r="J88">
+        <v>3</v>
+      </c>
+      <c r="L88" s="4"/>
+      <c r="M88">
+        <v>3</v>
+      </c>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B89" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D89" s="11"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
-      <c r="G89" s="5"/>
-      <c r="H89" t="s">
-        <v>77</v>
-      </c>
-      <c r="I89">
-        <v>2</v>
-      </c>
-      <c r="J89">
-        <v>2</v>
-      </c>
-      <c r="L89" s="3"/>
-      <c r="M89">
-        <v>2</v>
-      </c>
-      <c r="N89" s="16">
-        <v>45096</v>
-      </c>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B90" s="8"/>
-      <c r="C90" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D90" s="11"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
       <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="5"/>
-      <c r="I90" t="s">
-        <v>126</v>
-      </c>
-      <c r="J90">
-        <v>2</v>
-      </c>
-      <c r="L90" s="4"/>
-      <c r="M90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B92" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D92" s="11"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="5"/>
-      <c r="I92">
-        <v>3</v>
-      </c>
-      <c r="J92">
-        <v>3</v>
-      </c>
-      <c r="L92" s="4"/>
-      <c r="M92">
-        <v>3</v>
-      </c>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B93" s="8"/>
-      <c r="C93" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D93" s="11"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="5"/>
-      <c r="I93">
-        <v>3</v>
-      </c>
-      <c r="J93">
-        <v>3</v>
-      </c>
-      <c r="L93" s="4"/>
-      <c r="M93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
+      <c r="B93" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
+      <c r="B95" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B96" s="14" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B98" s="1" t="s">
-        <v>45</v>
+      <c r="B98" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B99" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B100" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B101" s="14" t="s">
-        <v>144</v>
+      <c r="B100" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B102" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B103" s="5" t="s">
-        <v>145</v>
+      <c r="B103" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B104" s="7" t="s">
-        <v>146</v>
+      <c r="B104" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B105" s="6" t="s">
-        <v>147</v>
+      <c r="B105" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B117" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B118" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B119" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B120" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3396,13 +3287,13 @@
               <from>
                 <xdr:col>14</xdr:col>
                 <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>65</xdr:row>
                 <xdr:rowOff>698500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>14</xdr:col>
                 <xdr:colOff>1746250</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>65</xdr:row>
                 <xdr:rowOff>1225550</xdr:rowOff>
               </to>
             </anchor>
